--- a/게시판 20190725.xlsx
+++ b/게시판 20190725.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="메인메뉴" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
   <si>
     <t>테이블 이름</t>
   </si>
@@ -387,6 +388,23 @@
   <si>
     <t>VARCHAR(1000)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨범</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0003</t>
+  </si>
+  <si>
+    <t>M0009</t>
+  </si>
+  <si>
+    <t>M0010</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:G29"/>
     </sheetView>
   </sheetViews>
@@ -2283,7 +2301,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2406,6 +2424,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2469,4 +2488,153 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>